--- a/Othoba.com/Test Cases of Othoba.com.xlsx
+++ b/Othoba.com/Test Cases of Othoba.com.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Product Name</t>
   </si>
@@ -401,12 +401,6 @@
   <si>
     <t>1. User should be able to succesfully registered inserting valid data all the field
 2. Registration confirmation message diplayed like "You have been succesfully registered"</t>
-  </si>
-  <si>
-    <t>Oth_09</t>
-  </si>
-  <si>
-    <t>Oth_10</t>
   </si>
 </sst>
 </file>
@@ -1473,9 +1467,7 @@
       <c r="I15" s="44"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>69</v>
-      </c>
+      <c r="A16" s="33"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="37"/>
@@ -1486,9 +1478,7 @@
       <c r="I16" s="44"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="A17" s="33"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="37"/>
